--- a/products/冲调饮品/茶叶/威士顿双重性独味红茶.xlsx
+++ b/products/冲调饮品/茶叶/威士顿双重性独味红茶.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t xml:space="preserve">品名</t>
   </si>
@@ -105,38 +105,10 @@
     <t xml:space="preserve">净含量</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5克</t>
+    <t xml:space="preserve">50克</t>
   </si>
   <si>
     <t xml:space="preserve">一组数量：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">营养成分表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每100克（g）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  营养素参考值%
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛋白质</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总脂肪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">碳水化合物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钠</t>
   </si>
   <si>
     <t xml:space="preserve">口味</t>
@@ -253,7 +225,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,8 +234,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -276,10 +248,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -308,20 +276,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.840206185567"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9845360824742"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9845360824742"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3659793814433"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0979381443299"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.7061855670103"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0515463917526"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.819587628866"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5721649484536"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.44845360824742"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +322,7 @@
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -362,11 +330,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -413,11 +380,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -456,149 +422,101 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="7"/>
-    </row>
     <row r="27" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="n">
         <v>95</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="n">
         <v>73</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="n">
         <v>70</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
+    <row r="1048576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" display="www.jindiyanghang.com "/>
@@ -626,7 +544,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44845360824742"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -652,7 +570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44845360824742"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
